--- a/Tabelas/Calculadora de Magia/Spell 0.1.xlsx
+++ b/Tabelas/Calculadora de Magia/Spell 0.1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="EstaPastaDeTrabalho" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Google Drive\Fichas\Ars-Magica\Tabelas\Calculadora de Magia\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Google Drive\Ars Magica\Tabelas\Calculadora de Magia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B920E44-8799-45E7-B985-D6DD33A010A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{261E7D24-15A0-4F2D-95D5-D0DBEC00BEDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20610" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="1" xr2:uid="{C3335FCB-74DB-4CC7-A6BA-2C58AD2F1A64}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" firstSheet="1" activeTab="4" xr2:uid="{C3335FCB-74DB-4CC7-A6BA-2C58AD2F1A64}"/>
   </bookViews>
   <sheets>
     <sheet name="Nota" sheetId="14" r:id="rId1"/>
@@ -69,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="809" uniqueCount="742">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="805" uniqueCount="738">
   <si>
     <t>Arte</t>
   </si>
@@ -1353,15 +1353,6 @@
     <t>Referências Rego Terram</t>
   </si>
   <si>
-    <t>Há poucas magias formulaicas Creo Vim conhecidas na Ordem.</t>
-  </si>
-  <si>
-    <t>As Falhas Críticas Creo Vim muitas vezes conferem ao magus pontos extras de Distorção – consequência direta da perda de controle da</t>
-  </si>
-  <si>
-    <t>energia mágica manipulada.</t>
-  </si>
-  <si>
     <t>Geral: Criar uma concha mágica que pareça real para magias Intellego de nível menor que o dobro desta magia mais uma magnitude</t>
   </si>
   <si>
@@ -1399,9 +1390,6 @@
   </si>
   <si>
     <t>Referências Creo Vim</t>
-  </si>
-  <si>
-    <t>Magias| 225</t>
   </si>
   <si>
     <t>Referência Intellego Vim</t>
@@ -3820,7 +3808,7 @@
   <sheetData>
     <row r="2" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.25">
@@ -3828,13 +3816,13 @@
         <v>0</v>
       </c>
       <c r="C3" s="45" t="s">
-        <v>661</v>
+        <v>657</v>
       </c>
       <c r="D3">
         <v>2</v>
       </c>
       <c r="E3" s="45" t="s">
-        <v>661</v>
+        <v>657</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -3845,13 +3833,13 @@
         <v>3</v>
       </c>
       <c r="C4" s="45" t="s">
-        <v>661</v>
+        <v>657</v>
       </c>
       <c r="D4">
         <v>5</v>
       </c>
       <c r="E4" s="45" t="s">
-        <v>661</v>
+        <v>657</v>
       </c>
       <c r="F4">
         <v>1</v>
@@ -3862,13 +3850,13 @@
         <v>6</v>
       </c>
       <c r="C5" s="45" t="s">
-        <v>661</v>
+        <v>657</v>
       </c>
       <c r="D5">
         <v>10</v>
       </c>
       <c r="E5" s="45" t="s">
-        <v>661</v>
+        <v>657</v>
       </c>
       <c r="F5">
         <v>2</v>
@@ -3880,13 +3868,13 @@
         <v>11</v>
       </c>
       <c r="C6" s="45" t="s">
-        <v>661</v>
+        <v>657</v>
       </c>
       <c r="D6" s="45">
         <v>15</v>
       </c>
       <c r="E6" s="45" t="s">
-        <v>661</v>
+        <v>657</v>
       </c>
       <c r="F6">
         <v>3</v>
@@ -3898,13 +3886,13 @@
         <v>16</v>
       </c>
       <c r="C7" s="45" t="s">
-        <v>661</v>
+        <v>657</v>
       </c>
       <c r="D7" s="45">
         <v>20</v>
       </c>
       <c r="E7" s="45" t="s">
-        <v>661</v>
+        <v>657</v>
       </c>
       <c r="F7" s="45">
         <v>4</v>
@@ -3916,13 +3904,13 @@
         <v>21</v>
       </c>
       <c r="C8" s="45" t="s">
-        <v>661</v>
+        <v>657</v>
       </c>
       <c r="D8" s="45">
         <v>25</v>
       </c>
       <c r="E8" s="45" t="s">
-        <v>661</v>
+        <v>657</v>
       </c>
       <c r="F8" s="45">
         <v>5</v>
@@ -3934,13 +3922,13 @@
         <v>26</v>
       </c>
       <c r="C9" s="45" t="s">
-        <v>661</v>
+        <v>657</v>
       </c>
       <c r="D9" s="45">
         <v>30</v>
       </c>
       <c r="E9" s="45" t="s">
-        <v>661</v>
+        <v>657</v>
       </c>
       <c r="F9" s="45">
         <v>6</v>
@@ -3952,13 +3940,13 @@
         <v>31</v>
       </c>
       <c r="C10" s="45" t="s">
-        <v>661</v>
+        <v>657</v>
       </c>
       <c r="D10" s="45">
         <v>35</v>
       </c>
       <c r="E10" s="45" t="s">
-        <v>661</v>
+        <v>657</v>
       </c>
       <c r="F10" s="45">
         <v>7</v>
@@ -3970,13 +3958,13 @@
         <v>36</v>
       </c>
       <c r="C11" s="45" t="s">
-        <v>661</v>
+        <v>657</v>
       </c>
       <c r="D11" s="45">
         <v>40</v>
       </c>
       <c r="E11" s="45" t="s">
-        <v>661</v>
+        <v>657</v>
       </c>
       <c r="F11" s="45">
         <v>8</v>
@@ -3988,13 +3976,13 @@
         <v>41</v>
       </c>
       <c r="C12" s="45" t="s">
-        <v>661</v>
+        <v>657</v>
       </c>
       <c r="D12" s="45">
         <v>45</v>
       </c>
       <c r="E12" s="45" t="s">
-        <v>661</v>
+        <v>657</v>
       </c>
       <c r="F12" s="45">
         <v>9</v>
@@ -4006,13 +3994,13 @@
         <v>46</v>
       </c>
       <c r="C13" s="45" t="s">
-        <v>661</v>
+        <v>657</v>
       </c>
       <c r="D13" s="45">
         <v>50</v>
       </c>
       <c r="E13" s="45" t="s">
-        <v>661</v>
+        <v>657</v>
       </c>
       <c r="F13" s="45">
         <v>10</v>
@@ -4061,7 +4049,7 @@
         <v>0</v>
       </c>
       <c r="C3" s="179" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="D3" s="179"/>
       <c r="E3" s="179"/>
@@ -4080,7 +4068,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="179" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="D4" s="179"/>
       <c r="E4" s="179"/>
@@ -4102,7 +4090,7 @@
         <v>2</v>
       </c>
       <c r="C5" s="179" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="D5" s="179"/>
       <c r="E5" s="179"/>
@@ -4121,7 +4109,7 @@
         <v>3</v>
       </c>
       <c r="C6" s="179" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="D6" s="179"/>
       <c r="E6" s="179"/>
@@ -4140,7 +4128,7 @@
         <v>4</v>
       </c>
       <c r="C7" s="179" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="D7" s="179"/>
       <c r="E7" s="179"/>
@@ -4176,7 +4164,7 @@
         <v>0</v>
       </c>
       <c r="C9" s="179" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
       <c r="D9" s="179"/>
       <c r="E9" s="179"/>
@@ -4195,7 +4183,7 @@
         <v>0</v>
       </c>
       <c r="C10" s="179" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="D10" s="179"/>
       <c r="E10" s="179"/>
@@ -4253,7 +4241,7 @@
         <v>1</v>
       </c>
       <c r="C13" s="179" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="D13" s="179"/>
       <c r="E13" s="179"/>
@@ -4272,7 +4260,7 @@
         <v>2</v>
       </c>
       <c r="C14" s="179" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="D14" s="179"/>
       <c r="E14" s="179"/>
@@ -4310,7 +4298,7 @@
         <v>3</v>
       </c>
       <c r="C16" s="179" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="D16" s="179"/>
       <c r="E16" s="179"/>
@@ -4329,7 +4317,7 @@
         <v>4</v>
       </c>
       <c r="C17" s="179" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="D17" s="179"/>
       <c r="E17" s="179"/>
@@ -4365,7 +4353,7 @@
         <v>0</v>
       </c>
       <c r="C19" s="179" t="s">
-        <v>716</v>
+        <v>712</v>
       </c>
       <c r="D19" s="179"/>
       <c r="E19" s="179"/>
@@ -4384,7 +4372,7 @@
         <v>1</v>
       </c>
       <c r="C20" s="179" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="D20" s="179"/>
       <c r="E20" s="179"/>
@@ -4403,7 +4391,7 @@
         <v>2</v>
       </c>
       <c r="C21" s="179" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="D21" s="179"/>
       <c r="E21" s="179"/>
@@ -4422,7 +4410,7 @@
         <v>3</v>
       </c>
       <c r="C22" s="179" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="D22" s="179"/>
       <c r="E22" s="179"/>
@@ -4441,7 +4429,7 @@
         <v>4</v>
       </c>
       <c r="C23" s="179" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="D23" s="179"/>
       <c r="E23" s="179"/>
@@ -4477,7 +4465,7 @@
         <v>0</v>
       </c>
       <c r="C25" s="179" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="D25" s="179"/>
       <c r="E25" s="179"/>
@@ -4496,7 +4484,7 @@
         <v>1</v>
       </c>
       <c r="C26" s="179" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="D26" s="179"/>
       <c r="E26" s="179"/>
@@ -4534,7 +4522,7 @@
         <v>2</v>
       </c>
       <c r="C28" s="179" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="D28" s="179"/>
       <c r="E28" s="179"/>
@@ -4572,7 +4560,7 @@
         <v>3</v>
       </c>
       <c r="C30" s="179" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="D30" s="179"/>
       <c r="E30" s="179"/>
@@ -4591,7 +4579,7 @@
         <v>4</v>
       </c>
       <c r="C31" s="179" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="D31" s="179"/>
       <c r="E31" s="179"/>
@@ -4625,7 +4613,7 @@
         <v>0</v>
       </c>
       <c r="C33" s="179" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="D33" s="179"/>
       <c r="E33" s="179"/>
@@ -4644,7 +4632,7 @@
         <v>1</v>
       </c>
       <c r="C34" s="179" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="D34" s="179"/>
       <c r="E34" s="179"/>
@@ -4682,7 +4670,7 @@
         <v>2</v>
       </c>
       <c r="C36" s="179" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="D36" s="179"/>
       <c r="E36" s="179"/>
@@ -4701,7 +4689,7 @@
         <v>2</v>
       </c>
       <c r="C37" s="179" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="D37" s="179"/>
       <c r="E37" s="179"/>
@@ -4720,7 +4708,7 @@
         <v>3</v>
       </c>
       <c r="C38" s="179" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="D38" s="179"/>
       <c r="E38" s="179"/>
@@ -4739,7 +4727,7 @@
         <v>4</v>
       </c>
       <c r="C39" s="179" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="D39" s="179"/>
       <c r="E39" s="179"/>
@@ -4758,7 +4746,7 @@
         <v>5</v>
       </c>
       <c r="C40" s="179" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="D40" s="179"/>
       <c r="E40" s="179"/>
@@ -4825,7 +4813,7 @@
   </sheetPr>
   <dimension ref="B3:AK60"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView topLeftCell="A25" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="B48" sqref="B48"/>
     </sheetView>
   </sheetViews>
@@ -4856,7 +4844,7 @@
         <v>0</v>
       </c>
       <c r="C4" s="182" t="s">
-        <v>624</v>
+        <v>620</v>
       </c>
       <c r="D4" s="182"/>
       <c r="E4" s="182"/>
@@ -4878,7 +4866,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="182" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
       <c r="D5" s="182"/>
       <c r="E5" s="182"/>
@@ -4897,7 +4885,7 @@
         <v>1</v>
       </c>
       <c r="C6" s="182" t="s">
-        <v>622</v>
+        <v>618</v>
       </c>
       <c r="D6" s="182"/>
       <c r="E6" s="182"/>
@@ -4916,7 +4904,7 @@
         <v>6</v>
       </c>
       <c r="C7" s="182" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
       <c r="D7" s="182"/>
       <c r="E7" s="182"/>
@@ -4935,7 +4923,7 @@
         <v>7</v>
       </c>
       <c r="C8" s="182" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
       <c r="D8" s="182"/>
       <c r="E8" s="182"/>
@@ -4954,7 +4942,7 @@
         <v>8</v>
       </c>
       <c r="C9" s="182" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
       <c r="D9" s="182"/>
       <c r="E9" s="182"/>
@@ -4973,7 +4961,7 @@
         <v>9</v>
       </c>
       <c r="C10" s="182" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="D10" s="182"/>
       <c r="E10" s="182"/>
@@ -4987,7 +4975,7 @@
       <c r="M10" s="182"/>
       <c r="N10" s="182"/>
       <c r="T10" s="42" t="s">
-        <v>653</v>
+        <v>649</v>
       </c>
     </row>
     <row r="11" spans="2:37" x14ac:dyDescent="0.25">
@@ -4995,7 +4983,7 @@
         <v>10</v>
       </c>
       <c r="C11" s="182" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="D11" s="182"/>
       <c r="E11" s="182"/>
@@ -5014,7 +5002,7 @@
         <v>11</v>
       </c>
       <c r="C12" s="182" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
       <c r="D12" s="182"/>
       <c r="E12" s="182"/>
@@ -5050,7 +5038,7 @@
         <v>0</v>
       </c>
       <c r="C14" s="182" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
       <c r="D14" s="182"/>
       <c r="E14" s="182"/>
@@ -5069,7 +5057,7 @@
         <v>1</v>
       </c>
       <c r="C15" s="182" t="s">
-        <v>611</v>
+        <v>607</v>
       </c>
       <c r="D15" s="182"/>
       <c r="E15" s="182"/>
@@ -5107,7 +5095,7 @@
         <v>2</v>
       </c>
       <c r="C17" s="182" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
       <c r="D17" s="182"/>
       <c r="E17" s="182"/>
@@ -5145,7 +5133,7 @@
         <v>3</v>
       </c>
       <c r="C19" s="182" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="D19" s="182"/>
       <c r="E19" s="182"/>
@@ -5202,7 +5190,7 @@
         <v>4</v>
       </c>
       <c r="C22" s="182" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="D22" s="182"/>
       <c r="E22" s="182"/>
@@ -5221,7 +5209,7 @@
         <v>5</v>
       </c>
       <c r="C23" s="182" t="s">
-        <v>615</v>
+        <v>611</v>
       </c>
       <c r="D23" s="182"/>
       <c r="E23" s="182"/>
@@ -5257,7 +5245,7 @@
         <v>0</v>
       </c>
       <c r="C25" s="182" t="s">
-        <v>625</v>
+        <v>621</v>
       </c>
       <c r="D25" s="182"/>
       <c r="E25" s="182"/>
@@ -5276,7 +5264,7 @@
         <v>0</v>
       </c>
       <c r="C26" s="182" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
       <c r="D26" s="182"/>
       <c r="E26" s="182"/>
@@ -5295,7 +5283,7 @@
         <v>1</v>
       </c>
       <c r="C27" s="182" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
       <c r="D27" s="182"/>
       <c r="E27" s="182"/>
@@ -5333,7 +5321,7 @@
         <v>1</v>
       </c>
       <c r="C29" s="182" t="s">
-        <v>628</v>
+        <v>624</v>
       </c>
       <c r="D29" s="182"/>
       <c r="E29" s="182"/>
@@ -5371,7 +5359,7 @@
         <v>2</v>
       </c>
       <c r="C31" s="182" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
       <c r="D31" s="182"/>
       <c r="E31" s="182"/>
@@ -5390,7 +5378,7 @@
         <v>3</v>
       </c>
       <c r="C32" s="182" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="D32" s="182"/>
       <c r="E32" s="182"/>
@@ -5428,7 +5416,7 @@
         <v>5</v>
       </c>
       <c r="C34" s="182" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
       <c r="D34" s="182"/>
       <c r="E34" s="182"/>
@@ -5464,7 +5452,7 @@
         <v>1</v>
       </c>
       <c r="C36" s="182" t="s">
-        <v>632</v>
+        <v>628</v>
       </c>
       <c r="D36" s="182"/>
       <c r="E36" s="182"/>
@@ -5483,7 +5471,7 @@
         <v>1</v>
       </c>
       <c r="C37" s="182" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
       <c r="D37" s="182"/>
       <c r="E37" s="182"/>
@@ -5540,7 +5528,7 @@
         <v>1</v>
       </c>
       <c r="C40" s="182" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="D40" s="182"/>
       <c r="E40" s="182"/>
@@ -5559,7 +5547,7 @@
         <v>2</v>
       </c>
       <c r="C41" s="182" t="s">
-        <v>635</v>
+        <v>631</v>
       </c>
       <c r="D41" s="182"/>
       <c r="E41" s="182"/>
@@ -5597,7 +5585,7 @@
         <v>3</v>
       </c>
       <c r="C43" s="182" t="s">
-        <v>636</v>
+        <v>632</v>
       </c>
       <c r="D43" s="182"/>
       <c r="E43" s="182"/>
@@ -5654,7 +5642,7 @@
         <v>5</v>
       </c>
       <c r="C46" s="182" t="s">
-        <v>637</v>
+        <v>633</v>
       </c>
       <c r="D46" s="182"/>
       <c r="E46" s="182"/>
@@ -5670,7 +5658,7 @@
     </row>
     <row r="47" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B47" s="185" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
       <c r="C47" s="185"/>
       <c r="D47" s="185"/>
@@ -5690,7 +5678,7 @@
         <v>0</v>
       </c>
       <c r="C48" s="183" t="s">
-        <v>717</v>
+        <v>713</v>
       </c>
       <c r="D48" s="183"/>
       <c r="E48" s="183"/>
@@ -5709,7 +5697,7 @@
         <v>0</v>
       </c>
       <c r="C49" s="182" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
       <c r="D49" s="182"/>
       <c r="E49" s="182"/>
@@ -5728,7 +5716,7 @@
         <v>1</v>
       </c>
       <c r="C50" s="182" t="s">
-        <v>639</v>
+        <v>635</v>
       </c>
       <c r="D50" s="182"/>
       <c r="E50" s="182"/>
@@ -5747,7 +5735,7 @@
         <v>1</v>
       </c>
       <c r="C51" s="182" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
       <c r="D51" s="182"/>
       <c r="E51" s="182"/>
@@ -5821,7 +5809,7 @@
         <v>2</v>
       </c>
       <c r="C55" s="182" t="s">
-        <v>644</v>
+        <v>640</v>
       </c>
       <c r="D55" s="182"/>
       <c r="E55" s="182"/>
@@ -5859,7 +5847,7 @@
         <v>3</v>
       </c>
       <c r="C57" s="182" t="s">
-        <v>643</v>
+        <v>639</v>
       </c>
       <c r="D57" s="182"/>
       <c r="E57" s="182"/>
@@ -5897,7 +5885,7 @@
         <v>4</v>
       </c>
       <c r="C59" s="182" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
       <c r="D59" s="182"/>
       <c r="E59" s="182"/>
@@ -5916,7 +5904,7 @@
         <v>5</v>
       </c>
       <c r="C60" s="182" t="s">
-        <v>642</v>
+        <v>638</v>
       </c>
       <c r="D60" s="182"/>
       <c r="E60" s="182"/>
@@ -6035,7 +6023,7 @@
         <v>0</v>
       </c>
       <c r="D3" s="188" t="s">
-        <v>718</v>
+        <v>714</v>
       </c>
       <c r="E3" s="188"/>
       <c r="F3" s="188"/>
@@ -6054,7 +6042,7 @@
         <v>1</v>
       </c>
       <c r="D4" s="188" t="s">
-        <v>719</v>
+        <v>715</v>
       </c>
       <c r="E4" s="188"/>
       <c r="F4" s="188"/>
@@ -6114,7 +6102,7 @@
         <v>3</v>
       </c>
       <c r="D6" s="188" t="s">
-        <v>720</v>
+        <v>716</v>
       </c>
       <c r="E6" s="188"/>
       <c r="F6" s="188"/>
@@ -6144,7 +6132,7 @@
         <v>5</v>
       </c>
       <c r="D7" s="188" t="s">
-        <v>721</v>
+        <v>717</v>
       </c>
       <c r="E7" s="188"/>
       <c r="F7" s="188"/>
@@ -6202,7 +6190,7 @@
         <v>0</v>
       </c>
       <c r="D9" s="188" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="E9" s="188"/>
       <c r="F9" s="188"/>
@@ -6232,7 +6220,7 @@
         <v>1</v>
       </c>
       <c r="D10" s="188" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="E10" s="188"/>
       <c r="F10" s="188"/>
@@ -6246,7 +6234,7 @@
       <c r="N10" s="188"/>
       <c r="O10" s="188"/>
       <c r="U10" s="42" t="s">
-        <v>653</v>
+        <v>649</v>
       </c>
       <c r="V10">
         <f>U11+7</f>
@@ -6291,7 +6279,7 @@
         <v>1</v>
       </c>
       <c r="D12" s="188" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="E12" s="188"/>
       <c r="F12" s="188"/>
@@ -6321,7 +6309,7 @@
         <v>2</v>
       </c>
       <c r="D13" s="188" t="s">
-        <v>731</v>
+        <v>727</v>
       </c>
       <c r="E13" s="188"/>
       <c r="F13" s="188"/>
@@ -6351,7 +6339,7 @@
         <v>3</v>
       </c>
       <c r="D14" s="188" t="s">
-        <v>730</v>
+        <v>726</v>
       </c>
       <c r="E14" s="188"/>
       <c r="F14" s="188"/>
@@ -6374,7 +6362,7 @@
         <v>4</v>
       </c>
       <c r="D15" s="188" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
       <c r="E15" s="188"/>
       <c r="F15" s="188"/>
@@ -6429,7 +6417,7 @@
         <v>5</v>
       </c>
       <c r="D18" s="188" t="s">
-        <v>728</v>
+        <v>724</v>
       </c>
       <c r="E18" s="188"/>
       <c r="F18" s="188"/>
@@ -6465,7 +6453,7 @@
         <v>0</v>
       </c>
       <c r="D20" s="188" t="s">
-        <v>723</v>
+        <v>719</v>
       </c>
       <c r="E20" s="188"/>
       <c r="F20" s="188"/>
@@ -6484,7 +6472,7 @@
         <v>1</v>
       </c>
       <c r="D21" s="188" t="s">
-        <v>724</v>
+        <v>720</v>
       </c>
       <c r="E21" s="188"/>
       <c r="F21" s="188"/>
@@ -6503,7 +6491,7 @@
         <v>1</v>
       </c>
       <c r="D22" s="188" t="s">
-        <v>725</v>
+        <v>721</v>
       </c>
       <c r="E22" s="188"/>
       <c r="F22" s="188"/>
@@ -6560,7 +6548,7 @@
         <v>2</v>
       </c>
       <c r="D25" s="188" t="s">
-        <v>722</v>
+        <v>718</v>
       </c>
       <c r="E25" s="188"/>
       <c r="F25" s="188"/>
@@ -6636,7 +6624,7 @@
         <v>3</v>
       </c>
       <c r="D29" s="188" t="s">
-        <v>726</v>
+        <v>722</v>
       </c>
       <c r="E29" s="188"/>
       <c r="F29" s="188"/>
@@ -6674,7 +6662,7 @@
         <v>4</v>
       </c>
       <c r="D31" s="188" t="s">
-        <v>727</v>
+        <v>723</v>
       </c>
       <c r="E31" s="188"/>
       <c r="F31" s="188"/>
@@ -6710,7 +6698,7 @@
         <v>0</v>
       </c>
       <c r="D33" s="188" t="s">
-        <v>735</v>
+        <v>731</v>
       </c>
       <c r="E33" s="188"/>
       <c r="F33" s="188"/>
@@ -6729,7 +6717,7 @@
         <v>1</v>
       </c>
       <c r="D34" s="188" t="s">
-        <v>736</v>
+        <v>732</v>
       </c>
       <c r="E34" s="188"/>
       <c r="F34" s="188"/>
@@ -6765,7 +6753,7 @@
         <v>0</v>
       </c>
       <c r="D36" s="188" t="s">
-        <v>737</v>
+        <v>733</v>
       </c>
       <c r="E36" s="188"/>
       <c r="F36" s="188"/>
@@ -6784,7 +6772,7 @@
         <v>0</v>
       </c>
       <c r="D37" s="188" t="s">
-        <v>738</v>
+        <v>734</v>
       </c>
       <c r="E37" s="188"/>
       <c r="F37" s="188"/>
@@ -6822,7 +6810,7 @@
         <v>1</v>
       </c>
       <c r="D39" s="188" t="s">
-        <v>739</v>
+        <v>735</v>
       </c>
       <c r="E39" s="188"/>
       <c r="F39" s="188"/>
@@ -6841,7 +6829,7 @@
         <v>1</v>
       </c>
       <c r="D40" s="188" t="s">
-        <v>740</v>
+        <v>736</v>
       </c>
       <c r="E40" s="188"/>
       <c r="F40" s="188"/>
@@ -6906,17 +6894,17 @@
   <sheetPr>
     <tabColor theme="1" tint="4.9989318521683403E-2"/>
   </sheetPr>
-  <dimension ref="B2:AL82"/>
+  <dimension ref="B2:U78"/>
   <sheetViews>
-    <sheetView topLeftCell="A42" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="T11" sqref="T11"/>
+    <sheetView topLeftCell="A22" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="D59" sqref="D59:O59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="2:38" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="189" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="C2" s="189"/>
       <c r="D2" s="189"/>
@@ -6932,7 +6920,7 @@
       <c r="N2" s="189"/>
       <c r="O2" s="189"/>
     </row>
-    <row r="3" spans="2:38" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:21" x14ac:dyDescent="0.25">
       <c r="D3" s="190" t="s">
         <v>388</v>
       </c>
@@ -6948,7 +6936,7 @@
       <c r="N3" s="190"/>
       <c r="O3" s="190"/>
     </row>
-    <row r="4" spans="2:38" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:21" x14ac:dyDescent="0.25">
       <c r="D4" s="190" t="s">
         <v>389</v>
       </c>
@@ -6963,11 +6951,8 @@
       <c r="M4" s="190"/>
       <c r="N4" s="190"/>
       <c r="O4" s="190"/>
-      <c r="AL4">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="2:38" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="2:21" x14ac:dyDescent="0.25">
       <c r="D5" s="190" t="s">
         <v>390</v>
       </c>
@@ -6983,7 +6968,7 @@
       <c r="N5" s="190"/>
       <c r="O5" s="190"/>
     </row>
-    <row r="6" spans="2:38" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:21" x14ac:dyDescent="0.25">
       <c r="D6" s="190" t="s">
         <v>391</v>
       </c>
@@ -6999,7 +6984,7 @@
       <c r="N6" s="190"/>
       <c r="O6" s="190"/>
     </row>
-    <row r="7" spans="2:38" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:21" x14ac:dyDescent="0.25">
       <c r="D7" s="190" t="s">
         <v>392</v>
       </c>
@@ -7014,8 +6999,11 @@
       <c r="M7" s="190"/>
       <c r="N7" s="190"/>
       <c r="O7" s="190"/>
-    </row>
-    <row r="8" spans="2:38" x14ac:dyDescent="0.25">
+      <c r="U7" s="42" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="8" spans="2:21" x14ac:dyDescent="0.25">
       <c r="D8" s="190" t="s">
         <v>393</v>
       </c>
@@ -7031,7 +7019,10 @@
       <c r="N8" s="190"/>
       <c r="O8" s="190"/>
     </row>
-    <row r="9" spans="2:38" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="C9">
+        <v>1</v>
+      </c>
       <c r="D9" s="190" t="s">
         <v>394</v>
       </c>
@@ -7047,7 +7038,10 @@
       <c r="N9" s="190"/>
       <c r="O9" s="190"/>
     </row>
-    <row r="10" spans="2:38" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="C10">
+        <v>1</v>
+      </c>
       <c r="D10" s="190" t="s">
         <v>395</v>
       </c>
@@ -7062,11 +7056,8 @@
       <c r="M10" s="190"/>
       <c r="N10" s="190"/>
       <c r="O10" s="190"/>
-      <c r="U10" s="42" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="11" spans="2:38" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="2:21" x14ac:dyDescent="0.25">
       <c r="D11" s="190" t="s">
         <v>396</v>
       </c>
@@ -7082,7 +7073,7 @@
       <c r="N11" s="190"/>
       <c r="O11" s="190"/>
     </row>
-    <row r="12" spans="2:38" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:21" x14ac:dyDescent="0.25">
       <c r="D12" s="190" t="s">
         <v>397</v>
       </c>
@@ -7098,7 +7089,10 @@
       <c r="N12" s="190"/>
       <c r="O12" s="190"/>
     </row>
-    <row r="13" spans="2:38" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="C13">
+        <v>2</v>
+      </c>
       <c r="D13" s="190" t="s">
         <v>398</v>
       </c>
@@ -7114,7 +7108,10 @@
       <c r="N13" s="190"/>
       <c r="O13" s="190"/>
     </row>
-    <row r="14" spans="2:38" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="C14">
+        <v>3</v>
+      </c>
       <c r="D14" s="190" t="s">
         <v>399</v>
       </c>
@@ -7130,25 +7127,27 @@
       <c r="N14" s="190"/>
       <c r="O14" s="190"/>
     </row>
-    <row r="15" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="D15" s="190" t="s">
-        <v>400</v>
-      </c>
-      <c r="E15" s="190"/>
-      <c r="F15" s="190"/>
-      <c r="G15" s="190"/>
-      <c r="H15" s="190"/>
-      <c r="I15" s="190"/>
-      <c r="J15" s="190"/>
-      <c r="K15" s="190"/>
-      <c r="L15" s="190"/>
-      <c r="M15" s="190"/>
-      <c r="N15" s="190"/>
-      <c r="O15" s="190"/>
-    </row>
-    <row r="16" spans="2:38" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B15" s="191" t="s">
+        <v>401</v>
+      </c>
+      <c r="C15" s="191"/>
+      <c r="D15" s="191"/>
+      <c r="E15" s="191"/>
+      <c r="F15" s="191"/>
+      <c r="G15" s="191"/>
+      <c r="H15" s="191"/>
+      <c r="I15" s="191"/>
+      <c r="J15" s="191"/>
+      <c r="K15" s="191"/>
+      <c r="L15" s="191"/>
+      <c r="M15" s="191"/>
+      <c r="N15" s="191"/>
+      <c r="O15" s="191"/>
+    </row>
+    <row r="16" spans="2:21" x14ac:dyDescent="0.25">
       <c r="D16" s="190" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="E16" s="190"/>
       <c r="F16" s="190"/>
@@ -7162,9 +7161,9 @@
       <c r="N16" s="190"/>
       <c r="O16" s="190"/>
     </row>
-    <row r="17" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:15" x14ac:dyDescent="0.25">
       <c r="D17" s="190" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="E17" s="190"/>
       <c r="F17" s="190"/>
@@ -7178,7 +7177,7 @@
       <c r="N17" s="190"/>
       <c r="O17" s="190"/>
     </row>
-    <row r="18" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:15" x14ac:dyDescent="0.25">
       <c r="D18" s="190" t="s">
         <v>404</v>
       </c>
@@ -7194,25 +7193,23 @@
       <c r="N18" s="190"/>
       <c r="O18" s="190"/>
     </row>
-    <row r="19" spans="2:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B19" s="191" t="s">
+    <row r="19" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="D19" s="190" t="s">
         <v>405</v>
       </c>
-      <c r="C19" s="191"/>
-      <c r="D19" s="191"/>
-      <c r="E19" s="191"/>
-      <c r="F19" s="191"/>
-      <c r="G19" s="191"/>
-      <c r="H19" s="191"/>
-      <c r="I19" s="191"/>
-      <c r="J19" s="191"/>
-      <c r="K19" s="191"/>
-      <c r="L19" s="191"/>
-      <c r="M19" s="191"/>
-      <c r="N19" s="191"/>
-      <c r="O19" s="191"/>
-    </row>
-    <row r="20" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="E19" s="190"/>
+      <c r="F19" s="190"/>
+      <c r="G19" s="190"/>
+      <c r="H19" s="190"/>
+      <c r="I19" s="190"/>
+      <c r="J19" s="190"/>
+      <c r="K19" s="190"/>
+      <c r="L19" s="190"/>
+      <c r="M19" s="190"/>
+      <c r="N19" s="190"/>
+      <c r="O19" s="190"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.25">
       <c r="D20" s="190" t="s">
         <v>406</v>
       </c>
@@ -7228,7 +7225,7 @@
       <c r="N20" s="190"/>
       <c r="O20" s="190"/>
     </row>
-    <row r="21" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:15" x14ac:dyDescent="0.25">
       <c r="D21" s="190" t="s">
         <v>407</v>
       </c>
@@ -7244,7 +7241,10 @@
       <c r="N21" s="190"/>
       <c r="O21" s="190"/>
     </row>
-    <row r="22" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C22">
+        <v>0</v>
+      </c>
       <c r="D22" s="190" t="s">
         <v>408</v>
       </c>
@@ -7260,7 +7260,7 @@
       <c r="N22" s="190"/>
       <c r="O22" s="190"/>
     </row>
-    <row r="23" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:15" x14ac:dyDescent="0.25">
       <c r="D23" s="190" t="s">
         <v>409</v>
       </c>
@@ -7276,7 +7276,7 @@
       <c r="N23" s="190"/>
       <c r="O23" s="190"/>
     </row>
-    <row r="24" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:15" x14ac:dyDescent="0.25">
       <c r="D24" s="190" t="s">
         <v>410</v>
       </c>
@@ -7292,7 +7292,10 @@
       <c r="N24" s="190"/>
       <c r="O24" s="190"/>
     </row>
-    <row r="25" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C25">
+        <v>0</v>
+      </c>
       <c r="D25" s="190" t="s">
         <v>411</v>
       </c>
@@ -7308,7 +7311,7 @@
       <c r="N25" s="190"/>
       <c r="O25" s="190"/>
     </row>
-    <row r="26" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:15" x14ac:dyDescent="0.25">
       <c r="D26" s="190" t="s">
         <v>412</v>
       </c>
@@ -7324,7 +7327,10 @@
       <c r="N26" s="190"/>
       <c r="O26" s="190"/>
     </row>
-    <row r="27" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C27">
+        <v>1</v>
+      </c>
       <c r="D27" s="190" t="s">
         <v>413</v>
       </c>
@@ -7340,7 +7346,7 @@
       <c r="N27" s="190"/>
       <c r="O27" s="190"/>
     </row>
-    <row r="28" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:15" x14ac:dyDescent="0.25">
       <c r="D28" s="190" t="s">
         <v>414</v>
       </c>
@@ -7356,7 +7362,7 @@
       <c r="N28" s="190"/>
       <c r="O28" s="190"/>
     </row>
-    <row r="29" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:15" x14ac:dyDescent="0.25">
       <c r="D29" s="190" t="s">
         <v>415</v>
       </c>
@@ -7372,7 +7378,7 @@
       <c r="N29" s="190"/>
       <c r="O29" s="190"/>
     </row>
-    <row r="30" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:15" x14ac:dyDescent="0.25">
       <c r="D30" s="190" t="s">
         <v>416</v>
       </c>
@@ -7388,7 +7394,10 @@
       <c r="N30" s="190"/>
       <c r="O30" s="190"/>
     </row>
-    <row r="31" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C31">
+        <v>1</v>
+      </c>
       <c r="D31" s="190" t="s">
         <v>417</v>
       </c>
@@ -7404,7 +7413,10 @@
       <c r="N31" s="190"/>
       <c r="O31" s="190"/>
     </row>
-    <row r="32" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C32">
+        <v>1</v>
+      </c>
       <c r="D32" s="190" t="s">
         <v>418</v>
       </c>
@@ -7421,6 +7433,9 @@
       <c r="O32" s="190"/>
     </row>
     <row r="33" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="C33">
+        <v>1</v>
+      </c>
       <c r="D33" s="190" t="s">
         <v>419</v>
       </c>
@@ -7437,6 +7452,9 @@
       <c r="O33" s="190"/>
     </row>
     <row r="34" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="C34">
+        <v>1</v>
+      </c>
       <c r="D34" s="190" t="s">
         <v>420</v>
       </c>
@@ -7453,6 +7471,9 @@
       <c r="O34" s="190"/>
     </row>
     <row r="35" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="C35">
+        <v>2</v>
+      </c>
       <c r="D35" s="190" t="s">
         <v>421</v>
       </c>
@@ -7469,6 +7490,9 @@
       <c r="O35" s="190"/>
     </row>
     <row r="36" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="C36">
+        <v>2</v>
+      </c>
       <c r="D36" s="190" t="s">
         <v>422</v>
       </c>
@@ -7484,41 +7508,45 @@
       <c r="N36" s="190"/>
       <c r="O36" s="190"/>
     </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="D37" s="190" t="s">
+    <row r="37" spans="2:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B37" s="191" t="s">
         <v>423</v>
       </c>
-      <c r="E37" s="190"/>
-      <c r="F37" s="190"/>
-      <c r="G37" s="190"/>
-      <c r="H37" s="190"/>
-      <c r="I37" s="190"/>
-      <c r="J37" s="190"/>
-      <c r="K37" s="190"/>
-      <c r="L37" s="190"/>
-      <c r="M37" s="190"/>
-      <c r="N37" s="190"/>
-      <c r="O37" s="190"/>
-    </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="D38" s="190" t="s">
-        <v>424</v>
-      </c>
-      <c r="E38" s="190"/>
-      <c r="F38" s="190"/>
-      <c r="G38" s="190"/>
-      <c r="H38" s="190"/>
-      <c r="I38" s="190"/>
-      <c r="J38" s="190"/>
-      <c r="K38" s="190"/>
-      <c r="L38" s="190"/>
-      <c r="M38" s="190"/>
-      <c r="N38" s="190"/>
-      <c r="O38" s="190"/>
+      <c r="C37" s="191"/>
+      <c r="D37" s="191"/>
+      <c r="E37" s="191"/>
+      <c r="F37" s="191"/>
+      <c r="G37" s="191"/>
+      <c r="H37" s="191"/>
+      <c r="I37" s="191"/>
+      <c r="J37" s="191"/>
+      <c r="K37" s="191"/>
+      <c r="L37" s="191"/>
+      <c r="M37" s="191"/>
+      <c r="N37" s="191"/>
+      <c r="O37" s="191"/>
+    </row>
+    <row r="38" spans="2:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B38" s="191" t="s">
+        <v>446</v>
+      </c>
+      <c r="C38" s="191"/>
+      <c r="D38" s="191"/>
+      <c r="E38" s="191"/>
+      <c r="F38" s="191"/>
+      <c r="G38" s="191"/>
+      <c r="H38" s="191"/>
+      <c r="I38" s="191"/>
+      <c r="J38" s="191"/>
+      <c r="K38" s="191"/>
+      <c r="L38" s="191"/>
+      <c r="M38" s="191"/>
+      <c r="N38" s="191"/>
+      <c r="O38" s="191"/>
     </row>
     <row r="39" spans="2:15" x14ac:dyDescent="0.25">
       <c r="D39" s="190" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="E39" s="190"/>
       <c r="F39" s="190"/>
@@ -7534,7 +7562,7 @@
     </row>
     <row r="40" spans="2:15" x14ac:dyDescent="0.25">
       <c r="D40" s="190" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E40" s="190"/>
       <c r="F40" s="190"/>
@@ -7548,41 +7576,37 @@
       <c r="N40" s="190"/>
       <c r="O40" s="190"/>
     </row>
-    <row r="41" spans="2:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B41" s="191" t="s">
+    <row r="41" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="D41" s="190" t="s">
+        <v>426</v>
+      </c>
+      <c r="E41" s="190"/>
+      <c r="F41" s="190"/>
+      <c r="G41" s="190"/>
+      <c r="H41" s="190"/>
+      <c r="I41" s="190"/>
+      <c r="J41" s="190"/>
+      <c r="K41" s="190"/>
+      <c r="L41" s="190"/>
+      <c r="M41" s="190"/>
+      <c r="N41" s="190"/>
+      <c r="O41" s="190"/>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="D42" s="190" t="s">
         <v>427</v>
       </c>
-      <c r="C41" s="191"/>
-      <c r="D41" s="191"/>
-      <c r="E41" s="191"/>
-      <c r="F41" s="191"/>
-      <c r="G41" s="191"/>
-      <c r="H41" s="191"/>
-      <c r="I41" s="191"/>
-      <c r="J41" s="191"/>
-      <c r="K41" s="191"/>
-      <c r="L41" s="191"/>
-      <c r="M41" s="191"/>
-      <c r="N41" s="191"/>
-      <c r="O41" s="191"/>
-    </row>
-    <row r="42" spans="2:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B42" s="191" t="s">
-        <v>450</v>
-      </c>
-      <c r="C42" s="191"/>
-      <c r="D42" s="191"/>
-      <c r="E42" s="191"/>
-      <c r="F42" s="191"/>
-      <c r="G42" s="191"/>
-      <c r="H42" s="191"/>
-      <c r="I42" s="191"/>
-      <c r="J42" s="191"/>
-      <c r="K42" s="191"/>
-      <c r="L42" s="191"/>
-      <c r="M42" s="191"/>
-      <c r="N42" s="191"/>
-      <c r="O42" s="191"/>
+      <c r="E42" s="190"/>
+      <c r="F42" s="190"/>
+      <c r="G42" s="190"/>
+      <c r="H42" s="190"/>
+      <c r="I42" s="190"/>
+      <c r="J42" s="190"/>
+      <c r="K42" s="190"/>
+      <c r="L42" s="190"/>
+      <c r="M42" s="190"/>
+      <c r="N42" s="190"/>
+      <c r="O42" s="190"/>
     </row>
     <row r="43" spans="2:15" x14ac:dyDescent="0.25">
       <c r="D43" s="190" t="s">
@@ -7680,7 +7704,7 @@
       <c r="N48" s="190"/>
       <c r="O48" s="190"/>
     </row>
-    <row r="49" spans="4:15" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:15" x14ac:dyDescent="0.25">
       <c r="D49" s="190" t="s">
         <v>434</v>
       </c>
@@ -7696,7 +7720,7 @@
       <c r="N49" s="190"/>
       <c r="O49" s="190"/>
     </row>
-    <row r="50" spans="4:15" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:15" x14ac:dyDescent="0.25">
       <c r="D50" s="190" t="s">
         <v>435</v>
       </c>
@@ -7712,7 +7736,7 @@
       <c r="N50" s="190"/>
       <c r="O50" s="190"/>
     </row>
-    <row r="51" spans="4:15" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:15" x14ac:dyDescent="0.25">
       <c r="D51" s="190" t="s">
         <v>436</v>
       </c>
@@ -7728,7 +7752,7 @@
       <c r="N51" s="190"/>
       <c r="O51" s="190"/>
     </row>
-    <row r="52" spans="4:15" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:15" x14ac:dyDescent="0.25">
       <c r="D52" s="190" t="s">
         <v>437</v>
       </c>
@@ -7744,7 +7768,7 @@
       <c r="N52" s="190"/>
       <c r="O52" s="190"/>
     </row>
-    <row r="53" spans="4:15" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:15" x14ac:dyDescent="0.25">
       <c r="D53" s="190" t="s">
         <v>438</v>
       </c>
@@ -7760,7 +7784,7 @@
       <c r="N53" s="190"/>
       <c r="O53" s="190"/>
     </row>
-    <row r="54" spans="4:15" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:15" x14ac:dyDescent="0.25">
       <c r="D54" s="190" t="s">
         <v>439</v>
       </c>
@@ -7776,7 +7800,7 @@
       <c r="N54" s="190"/>
       <c r="O54" s="190"/>
     </row>
-    <row r="55" spans="4:15" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:15" x14ac:dyDescent="0.25">
       <c r="D55" s="190" t="s">
         <v>440</v>
       </c>
@@ -7792,7 +7816,10 @@
       <c r="N55" s="190"/>
       <c r="O55" s="190"/>
     </row>
-    <row r="56" spans="4:15" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="C56">
+        <v>2</v>
+      </c>
       <c r="D56" s="190" t="s">
         <v>441</v>
       </c>
@@ -7808,7 +7835,10 @@
       <c r="N56" s="190"/>
       <c r="O56" s="190"/>
     </row>
-    <row r="57" spans="4:15" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="C57">
+        <v>3</v>
+      </c>
       <c r="D57" s="190" t="s">
         <v>442</v>
       </c>
@@ -7824,7 +7854,10 @@
       <c r="N57" s="190"/>
       <c r="O57" s="190"/>
     </row>
-    <row r="58" spans="4:15" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="C58">
+        <v>4</v>
+      </c>
       <c r="D58" s="190" t="s">
         <v>443</v>
       </c>
@@ -7840,7 +7873,10 @@
       <c r="N58" s="190"/>
       <c r="O58" s="190"/>
     </row>
-    <row r="59" spans="4:15" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="C59">
+        <v>5</v>
+      </c>
       <c r="D59" s="190" t="s">
         <v>444</v>
       </c>
@@ -7856,7 +7892,10 @@
       <c r="N59" s="190"/>
       <c r="O59" s="190"/>
     </row>
-    <row r="60" spans="4:15" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="C60">
+        <v>6</v>
+      </c>
       <c r="D60" s="190" t="s">
         <v>445</v>
       </c>
@@ -7872,23 +7911,25 @@
       <c r="N60" s="190"/>
       <c r="O60" s="190"/>
     </row>
-    <row r="61" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="D61" s="190" t="s">
-        <v>446</v>
-      </c>
-      <c r="E61" s="190"/>
-      <c r="F61" s="190"/>
-      <c r="G61" s="190"/>
-      <c r="H61" s="190"/>
-      <c r="I61" s="190"/>
-      <c r="J61" s="190"/>
-      <c r="K61" s="190"/>
-      <c r="L61" s="190"/>
-      <c r="M61" s="190"/>
-      <c r="N61" s="190"/>
-      <c r="O61" s="190"/>
-    </row>
-    <row r="62" spans="4:15" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B61" s="189" t="s">
+        <v>464</v>
+      </c>
+      <c r="C61" s="189"/>
+      <c r="D61" s="189"/>
+      <c r="E61" s="189"/>
+      <c r="F61" s="189"/>
+      <c r="G61" s="189"/>
+      <c r="H61" s="189"/>
+      <c r="I61" s="189"/>
+      <c r="J61" s="189"/>
+      <c r="K61" s="189"/>
+      <c r="L61" s="189"/>
+      <c r="M61" s="189"/>
+      <c r="N61" s="189"/>
+      <c r="O61" s="189"/>
+    </row>
+    <row r="62" spans="2:15" x14ac:dyDescent="0.25">
       <c r="D62" s="190" t="s">
         <v>447</v>
       </c>
@@ -7904,7 +7945,7 @@
       <c r="N62" s="190"/>
       <c r="O62" s="190"/>
     </row>
-    <row r="63" spans="4:15" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:15" x14ac:dyDescent="0.25">
       <c r="D63" s="190" t="s">
         <v>448</v>
       </c>
@@ -7920,7 +7961,7 @@
       <c r="N63" s="190"/>
       <c r="O63" s="190"/>
     </row>
-    <row r="64" spans="4:15" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:15" x14ac:dyDescent="0.25">
       <c r="D64" s="190" t="s">
         <v>449</v>
       </c>
@@ -7936,25 +7977,23 @@
       <c r="N64" s="190"/>
       <c r="O64" s="190"/>
     </row>
-    <row r="65" spans="2:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B65" s="189" t="s">
-        <v>468</v>
-      </c>
-      <c r="C65" s="189"/>
-      <c r="D65" s="189"/>
-      <c r="E65" s="189"/>
-      <c r="F65" s="189"/>
-      <c r="G65" s="189"/>
-      <c r="H65" s="189"/>
-      <c r="I65" s="189"/>
-      <c r="J65" s="189"/>
-      <c r="K65" s="189"/>
-      <c r="L65" s="189"/>
-      <c r="M65" s="189"/>
-      <c r="N65" s="189"/>
-      <c r="O65" s="189"/>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="65" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D65" s="190" t="s">
+        <v>450</v>
+      </c>
+      <c r="E65" s="190"/>
+      <c r="F65" s="190"/>
+      <c r="G65" s="190"/>
+      <c r="H65" s="190"/>
+      <c r="I65" s="190"/>
+      <c r="J65" s="190"/>
+      <c r="K65" s="190"/>
+      <c r="L65" s="190"/>
+      <c r="M65" s="190"/>
+      <c r="N65" s="190"/>
+      <c r="O65" s="190"/>
+    </row>
+    <row r="66" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D66" s="190" t="s">
         <v>451</v>
       </c>
@@ -7970,7 +8009,7 @@
       <c r="N66" s="190"/>
       <c r="O66" s="190"/>
     </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="67" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D67" s="190" t="s">
         <v>452</v>
       </c>
@@ -7986,7 +8025,7 @@
       <c r="N67" s="190"/>
       <c r="O67" s="190"/>
     </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="68" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D68" s="190" t="s">
         <v>453</v>
       </c>
@@ -8002,7 +8041,7 @@
       <c r="N68" s="190"/>
       <c r="O68" s="190"/>
     </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="69" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D69" s="190" t="s">
         <v>454</v>
       </c>
@@ -8018,7 +8057,7 @@
       <c r="N69" s="190"/>
       <c r="O69" s="190"/>
     </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="70" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D70" s="190" t="s">
         <v>455</v>
       </c>
@@ -8034,7 +8073,7 @@
       <c r="N70" s="190"/>
       <c r="O70" s="190"/>
     </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="71" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D71" s="190" t="s">
         <v>456</v>
       </c>
@@ -8050,7 +8089,7 @@
       <c r="N71" s="190"/>
       <c r="O71" s="190"/>
     </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="72" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D72" s="190" t="s">
         <v>457</v>
       </c>
@@ -8066,7 +8105,7 @@
       <c r="N72" s="190"/>
       <c r="O72" s="190"/>
     </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="73" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D73" s="190" t="s">
         <v>458</v>
       </c>
@@ -8082,7 +8121,7 @@
       <c r="N73" s="190"/>
       <c r="O73" s="190"/>
     </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="74" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D74" s="190" t="s">
         <v>459</v>
       </c>
@@ -8098,7 +8137,7 @@
       <c r="N74" s="190"/>
       <c r="O74" s="190"/>
     </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="75" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D75" s="190" t="s">
         <v>460</v>
       </c>
@@ -8114,7 +8153,7 @@
       <c r="N75" s="190"/>
       <c r="O75" s="190"/>
     </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="76" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D76" s="190" t="s">
         <v>461</v>
       </c>
@@ -8130,7 +8169,7 @@
       <c r="N76" s="190"/>
       <c r="O76" s="190"/>
     </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="77" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D77" s="190" t="s">
         <v>462</v>
       </c>
@@ -8146,7 +8185,7 @@
       <c r="N77" s="190"/>
       <c r="O77" s="190"/>
     </row>
-    <row r="78" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="78" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D78" s="190" t="s">
         <v>463</v>
       </c>
@@ -8162,78 +8201,18 @@
       <c r="N78" s="190"/>
       <c r="O78" s="190"/>
     </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="D79" s="190" t="s">
-        <v>464</v>
-      </c>
-      <c r="E79" s="190"/>
-      <c r="F79" s="190"/>
-      <c r="G79" s="190"/>
-      <c r="H79" s="190"/>
-      <c r="I79" s="190"/>
-      <c r="J79" s="190"/>
-      <c r="K79" s="190"/>
-      <c r="L79" s="190"/>
-      <c r="M79" s="190"/>
-      <c r="N79" s="190"/>
-      <c r="O79" s="190"/>
-    </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="D80" s="190" t="s">
-        <v>465</v>
-      </c>
-      <c r="E80" s="190"/>
-      <c r="F80" s="190"/>
-      <c r="G80" s="190"/>
-      <c r="H80" s="190"/>
-      <c r="I80" s="190"/>
-      <c r="J80" s="190"/>
-      <c r="K80" s="190"/>
-      <c r="L80" s="190"/>
-      <c r="M80" s="190"/>
-      <c r="N80" s="190"/>
-      <c r="O80" s="190"/>
-    </row>
-    <row r="81" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="D81" s="190" t="s">
-        <v>466</v>
-      </c>
-      <c r="E81" s="190"/>
-      <c r="F81" s="190"/>
-      <c r="G81" s="190"/>
-      <c r="H81" s="190"/>
-      <c r="I81" s="190"/>
-      <c r="J81" s="190"/>
-      <c r="K81" s="190"/>
-      <c r="L81" s="190"/>
-      <c r="M81" s="190"/>
-      <c r="N81" s="190"/>
-      <c r="O81" s="190"/>
-    </row>
-    <row r="82" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="D82" s="190" t="s">
-        <v>467</v>
-      </c>
-      <c r="E82" s="190"/>
-      <c r="F82" s="190"/>
-      <c r="G82" s="190"/>
-      <c r="H82" s="190"/>
-      <c r="I82" s="190"/>
-      <c r="J82" s="190"/>
-      <c r="K82" s="190"/>
-      <c r="L82" s="190"/>
-      <c r="M82" s="190"/>
-      <c r="N82" s="190"/>
-      <c r="O82" s="190"/>
-    </row>
   </sheetData>
-  <mergeCells count="81">
+  <mergeCells count="77">
+    <mergeCell ref="D74:O74"/>
+    <mergeCell ref="D75:O75"/>
+    <mergeCell ref="D76:O76"/>
+    <mergeCell ref="D77:O77"/>
     <mergeCell ref="D78:O78"/>
-    <mergeCell ref="D79:O79"/>
-    <mergeCell ref="D80:O80"/>
-    <mergeCell ref="D81:O81"/>
-    <mergeCell ref="D82:O82"/>
-    <mergeCell ref="D77:O77"/>
+    <mergeCell ref="D73:O73"/>
+    <mergeCell ref="D62:O62"/>
+    <mergeCell ref="D63:O63"/>
+    <mergeCell ref="D64:O64"/>
+    <mergeCell ref="D65:O65"/>
     <mergeCell ref="D66:O66"/>
     <mergeCell ref="D67:O67"/>
     <mergeCell ref="D68:O68"/>
@@ -8241,11 +8220,11 @@
     <mergeCell ref="D70:O70"/>
     <mergeCell ref="D71:O71"/>
     <mergeCell ref="D72:O72"/>
-    <mergeCell ref="D73:O73"/>
-    <mergeCell ref="D74:O74"/>
-    <mergeCell ref="D75:O75"/>
-    <mergeCell ref="D76:O76"/>
-    <mergeCell ref="D64:O64"/>
+    <mergeCell ref="D60:O60"/>
+    <mergeCell ref="D49:O49"/>
+    <mergeCell ref="D50:O50"/>
+    <mergeCell ref="D51:O51"/>
+    <mergeCell ref="D52:O52"/>
     <mergeCell ref="D53:O53"/>
     <mergeCell ref="D54:O54"/>
     <mergeCell ref="D55:O55"/>
@@ -8253,59 +8232,51 @@
     <mergeCell ref="D57:O57"/>
     <mergeCell ref="D58:O58"/>
     <mergeCell ref="D59:O59"/>
-    <mergeCell ref="D60:O60"/>
-    <mergeCell ref="D61:O61"/>
-    <mergeCell ref="D62:O62"/>
-    <mergeCell ref="D63:O63"/>
+    <mergeCell ref="D30:O30"/>
+    <mergeCell ref="D31:O31"/>
+    <mergeCell ref="D32:O32"/>
+    <mergeCell ref="D33:O33"/>
+    <mergeCell ref="D48:O48"/>
     <mergeCell ref="D35:O35"/>
     <mergeCell ref="D36:O36"/>
-    <mergeCell ref="D37:O37"/>
-    <mergeCell ref="D52:O52"/>
     <mergeCell ref="D39:O39"/>
     <mergeCell ref="D40:O40"/>
+    <mergeCell ref="D41:O41"/>
+    <mergeCell ref="D42:O42"/>
     <mergeCell ref="D43:O43"/>
     <mergeCell ref="D44:O44"/>
     <mergeCell ref="D45:O45"/>
     <mergeCell ref="D46:O46"/>
     <mergeCell ref="D47:O47"/>
-    <mergeCell ref="D48:O48"/>
-    <mergeCell ref="D49:O49"/>
-    <mergeCell ref="D50:O50"/>
-    <mergeCell ref="D51:O51"/>
-    <mergeCell ref="D30:O30"/>
-    <mergeCell ref="D31:O31"/>
-    <mergeCell ref="D32:O32"/>
-    <mergeCell ref="D33:O33"/>
-    <mergeCell ref="D34:O34"/>
     <mergeCell ref="B2:O2"/>
-    <mergeCell ref="B19:O19"/>
-    <mergeCell ref="B41:O41"/>
-    <mergeCell ref="B42:O42"/>
-    <mergeCell ref="D8:O8"/>
-    <mergeCell ref="D9:O9"/>
-    <mergeCell ref="D10:O10"/>
-    <mergeCell ref="D11:O11"/>
-    <mergeCell ref="D12:O12"/>
-    <mergeCell ref="D26:O26"/>
-    <mergeCell ref="D14:O14"/>
-    <mergeCell ref="D15:O15"/>
-    <mergeCell ref="D16:O16"/>
-    <mergeCell ref="D17:O17"/>
-    <mergeCell ref="D18:O18"/>
-    <mergeCell ref="D20:O20"/>
-    <mergeCell ref="B65:O65"/>
-    <mergeCell ref="D3:O3"/>
-    <mergeCell ref="D4:O4"/>
+    <mergeCell ref="B15:O15"/>
+    <mergeCell ref="B37:O37"/>
+    <mergeCell ref="B38:O38"/>
     <mergeCell ref="D5:O5"/>
     <mergeCell ref="D6:O6"/>
     <mergeCell ref="D7:O7"/>
+    <mergeCell ref="D8:O8"/>
+    <mergeCell ref="D9:O9"/>
+    <mergeCell ref="D22:O22"/>
+    <mergeCell ref="D11:O11"/>
+    <mergeCell ref="D12:O12"/>
     <mergeCell ref="D13:O13"/>
+    <mergeCell ref="D14:O14"/>
+    <mergeCell ref="D16:O16"/>
+    <mergeCell ref="D26:O26"/>
+    <mergeCell ref="B61:O61"/>
+    <mergeCell ref="D3:O3"/>
+    <mergeCell ref="D4:O4"/>
+    <mergeCell ref="D10:O10"/>
+    <mergeCell ref="D17:O17"/>
+    <mergeCell ref="D18:O18"/>
+    <mergeCell ref="D19:O19"/>
+    <mergeCell ref="D20:O20"/>
     <mergeCell ref="D21:O21"/>
-    <mergeCell ref="D22:O22"/>
+    <mergeCell ref="D34:O34"/>
     <mergeCell ref="D23:O23"/>
     <mergeCell ref="D24:O24"/>
     <mergeCell ref="D25:O25"/>
-    <mergeCell ref="D38:O38"/>
     <mergeCell ref="D27:O27"/>
     <mergeCell ref="D28:O28"/>
     <mergeCell ref="D29:O29"/>
@@ -8461,7 +8432,7 @@
   <sheetPr codeName="Planilha1"/>
   <dimension ref="A2:AL847"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
@@ -8507,19 +8478,19 @@
     <row r="3" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" s="14" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
       <c r="C3" s="14" t="s">
         <v>20</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>654</v>
+        <v>650</v>
       </c>
       <c r="E3" s="14" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="F3" s="14" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="G3" s="14" t="s">
         <v>32</v>
@@ -8544,11 +8515,11 @@
       </c>
       <c r="N3" s="1"/>
       <c r="O3" s="1" t="s">
-        <v>652</v>
+        <v>648</v>
       </c>
       <c r="P3" s="1"/>
       <c r="Q3" s="1" t="s">
-        <v>645</v>
+        <v>641</v>
       </c>
       <c r="S3" s="59" t="s">
         <v>20</v>
@@ -8562,7 +8533,7 @@
       </c>
       <c r="W3" s="59"/>
       <c r="X3" s="28" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="Y3" s="28" t="s">
         <v>31</v>
@@ -8586,22 +8557,22 @@
     <row r="4" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2"/>
       <c r="B4" s="16" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D4" s="16">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E4" s="16" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="F4" s="16" t="s">
-        <v>649</v>
+        <v>644</v>
       </c>
       <c r="G4" s="16" t="s">
-        <v>497</v>
+        <v>492</v>
       </c>
       <c r="H4" s="16" t="s">
         <v>19</v>
@@ -8611,22 +8582,22 @@
       </c>
       <c r="J4" s="43">
         <f>VLOOKUP(J5,AE5:AG846,2,1)</f>
-        <v>7.3857814123886696</v>
+        <v>3</v>
       </c>
       <c r="K4" s="15">
         <f>J4+I6</f>
-        <v>7.3857814123886696</v>
+        <v>3</v>
       </c>
       <c r="L4" s="15">
         <f>VLOOKUP(L5,AE5:AG846,3,1)</f>
-        <v>10.9132307692308</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="M4" s="15">
         <f>L4</f>
-        <v>10.9132307692308</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="O4" s="37" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="P4" s="37">
         <v>0</v>
@@ -8699,16 +8670,16 @@
       <c r="I5" s="32"/>
       <c r="J5" s="44">
         <f>(B6+E6+G6+F6+H6-I6)*(D6)</f>
-        <v>34</v>
+        <v>11.399999999999999</v>
       </c>
       <c r="K5" s="44"/>
       <c r="L5" s="44">
         <f>J5</f>
-        <v>34</v>
+        <v>11.399999999999999</v>
       </c>
       <c r="M5" s="44"/>
       <c r="O5" s="37" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
       <c r="P5" s="37">
         <v>1</v>
@@ -8736,7 +8707,7 @@
         <v>1.3</v>
       </c>
       <c r="X5" s="10" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="Y5" s="10">
         <v>0</v>
@@ -8745,7 +8716,7 @@
         <v>0</v>
       </c>
       <c r="AA5" s="12" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="AB5" s="12" t="s">
         <v>4</v>
@@ -8778,12 +8749,9 @@
       <c r="C6" s="32"/>
       <c r="D6" s="32">
         <f>W15</f>
-        <v>3.4</v>
-      </c>
-      <c r="E6" s="32">
-        <f>X20</f>
-        <v>4</v>
-      </c>
+        <v>1.9</v>
+      </c>
+      <c r="E6" s="32"/>
       <c r="F6" s="32"/>
       <c r="G6" s="32">
         <f>AA16</f>
@@ -8802,7 +8770,7 @@
       <c r="L6" s="32"/>
       <c r="M6" s="32"/>
       <c r="O6" s="37" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
       <c r="P6" s="37">
         <v>2</v>
@@ -8830,7 +8798,7 @@
         <v>1.6</v>
       </c>
       <c r="X6" s="10" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="Y6" s="10">
         <v>4</v>
@@ -8839,7 +8807,7 @@
         <v>1</v>
       </c>
       <c r="AA6" s="12" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="AB6" s="12" t="s">
         <v>22</v>
@@ -8867,7 +8835,9 @@
     <row r="7" spans="1:38" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="60" t="str">
         <f>VLOOKUP(Planilha1!E1,Planilha1!F3:G52,2,0)</f>
-        <v>Estas magias destroem plantas e objetos de origem vegetal. Como a maioria dos objetos são feitos de madeira, elas podem ser bastante destrutivas. Os parâmetros abaixo servem para destruir madeira morta. Madeira viva é um pouco mais difícil de ser destruída – adicione uma magnitude ao nível do parâmetro desejado. Falhas Críticas de PeHe geralmente destroem objetos errados, possivelmente parte do vestuário do magus.</v>
+        <v>Essas magias criam e restauram imagens. É importante notar que magias Creo Imaginem geram apenas as imagens das coisas e não as coisas propriamente ditas. Uma imagem de um balde não será capaz de carregar qualquer quantidade de água que jorre para dentro dela, assim como a imagem de um cavalo não é capaz de ser cavalgada. Esta é a maior indicação possível e muitas vezes a primeira, de que se trata de uma ilusão. Por outro lado, a ilusão de um muro pode parecer sólida ao toque, mas não oferece resistência caso alguém tenta empurrá-la. Aumentar a complexidade de uma percepção sensorial, como criar uma imagem em movimento, ou o som de palavras ao invés de barulho, exige um nível de magnitude adicional. Uma imagem que se mova ou emita sons em direção ao magus, à medida que ele se concentra, exige dois níveis adicionais de magnitude. Imagens extremamente intrincadas (como uma ponte ricamente entalhada ou esculpida) normalmente
+exigem mais um nível de magnitude. As Insígnias Místicas tendem a ser bastante óbvias em magias Creo Imaginem. As ilusões geralmente apresentam algum traço característico capaz de ligá-las aos magi que as criaram. As ilusões criadas por Fortunatus de Jerbiton, por exemplo, costumam ter algum ícone religioso em
+tamanho reduzido, devido ao seu método de criação de magias. As Falhas Críticas CrIm podem gerar ilusões óbvias, prontamente identificáveis como tal e claramente ligadas ao magus – identificando-o como um feiticeiro.</v>
       </c>
       <c r="C7" s="61"/>
       <c r="D7" s="61"/>
@@ -8881,7 +8851,7 @@
       <c r="L7" s="61"/>
       <c r="M7" s="62"/>
       <c r="O7" s="37" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
       <c r="P7" s="37">
         <v>2</v>
@@ -8900,7 +8870,7 @@
         <v>8</v>
       </c>
       <c r="U7" s="9" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="V7" s="7">
         <v>3</v>
@@ -8909,7 +8879,7 @@
         <v>1.9</v>
       </c>
       <c r="X7" s="10" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="Y7" s="10">
         <v>4</v>
@@ -8918,7 +8888,7 @@
         <v>2</v>
       </c>
       <c r="AA7" s="12" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="AB7" s="12" t="s">
         <v>24</v>
@@ -8958,7 +8928,7 @@
       <c r="L8" s="64"/>
       <c r="M8" s="65"/>
       <c r="O8" s="37" t="s">
-        <v>650</v>
+        <v>646</v>
       </c>
       <c r="P8" s="37">
         <v>3</v>
@@ -8986,7 +8956,7 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="X8" s="10" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="Y8" s="10">
         <v>6</v>
@@ -8995,7 +8965,7 @@
         <v>3</v>
       </c>
       <c r="AA8" s="12" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="AB8" s="12" t="s">
         <v>25</v>
@@ -9035,7 +9005,7 @@
       <c r="L9" s="64"/>
       <c r="M9" s="65"/>
       <c r="O9" s="37" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
       <c r="P9" s="37">
         <v>4</v>
@@ -9063,7 +9033,7 @@
         <v>2.5</v>
       </c>
       <c r="X9" s="10" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="Y9" s="10">
         <v>8</v>
@@ -9072,7 +9042,7 @@
         <v>5</v>
       </c>
       <c r="AA9" s="12" t="s">
-        <v>741</v>
+        <v>737</v>
       </c>
       <c r="AB9" s="12" t="s">
         <v>26</v>
@@ -9129,7 +9099,7 @@
         <v>5</v>
       </c>
       <c r="U10" s="9" t="s">
-        <v>653</v>
+        <v>649</v>
       </c>
       <c r="V10" s="7">
         <v>6</v>
@@ -9138,7 +9108,7 @@
         <v>2.8</v>
       </c>
       <c r="X10" s="10" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="Y10" s="10">
         <v>12</v>
@@ -9147,7 +9117,7 @@
         <v>6</v>
       </c>
       <c r="AA10" s="12" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="AB10" s="12" t="s">
         <v>23</v>
@@ -9210,7 +9180,7 @@
         <v>7</v>
       </c>
       <c r="AA11" s="12" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="AB11" s="12" t="s">
         <v>27</v>
@@ -9431,7 +9401,7 @@
       </c>
       <c r="W15" s="1">
         <f>VLOOKUP(D4,V4:W14,2,0)</f>
-        <v>3.4</v>
+        <v>1.9</v>
       </c>
       <c r="X15" s="10"/>
       <c r="Y15" s="10"/>
@@ -9552,7 +9522,7 @@
       </c>
       <c r="X20">
         <f>VLOOKUP(E4,X4:Y11,2,0)</f>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="Y20" t="s">
         <v>33</v>
@@ -24502,18 +24472,18 @@
     <row r="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A1" t="str">
         <f>Calculadora!B4</f>
-        <v>Perdo</v>
+        <v>Creo</v>
       </c>
       <c r="B1" t="s">
         <v>185</v>
       </c>
       <c r="C1" t="str">
         <f>Calculadora!C4</f>
-        <v>Herbam</v>
+        <v>Imaginem</v>
       </c>
       <c r="E1" t="str">
         <f>_xlfn.CONCAT(A1:C1)</f>
-        <v>Perdo Herbam</v>
+        <v>Creo Imaginem</v>
       </c>
     </row>
     <row r="3" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -24521,7 +24491,7 @@
         <v>40</v>
       </c>
       <c r="G3" s="34" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="H3" s="35"/>
       <c r="I3" s="35"/>
@@ -24537,10 +24507,10 @@
     </row>
     <row r="4" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
       <c r="F4" s="34" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="G4" s="34" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="H4" s="35"/>
       <c r="I4" s="35"/>
@@ -24555,10 +24525,10 @@
     </row>
     <row r="5" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
       <c r="F5" s="34" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="G5" s="34" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="H5" s="35"/>
       <c r="I5" s="35"/>
@@ -24573,10 +24543,10 @@
     </row>
     <row r="6" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
       <c r="F6" s="34" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="G6" s="34" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="H6" s="35"/>
       <c r="I6" s="35"/>
@@ -24591,10 +24561,10 @@
     </row>
     <row r="7" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
       <c r="F7" s="34" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="G7" s="34" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="H7" s="35"/>
       <c r="I7" s="35"/>
@@ -24609,10 +24579,10 @@
     </row>
     <row r="8" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
       <c r="F8" s="34" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="G8" s="34" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="H8" s="35"/>
       <c r="I8" s="35"/>
@@ -24627,10 +24597,10 @@
     </row>
     <row r="9" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
       <c r="F9" s="34" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="G9" s="34" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="H9" s="35"/>
       <c r="I9" s="35"/>
@@ -24645,10 +24615,10 @@
     </row>
     <row r="10" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
       <c r="F10" s="34" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="G10" s="34" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="H10" s="35"/>
       <c r="I10" s="35"/>
@@ -24663,10 +24633,10 @@
     </row>
     <row r="11" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
       <c r="F11" s="34" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="G11" s="34" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="H11" s="35"/>
       <c r="I11" s="35"/>
@@ -24681,10 +24651,10 @@
     </row>
     <row r="12" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
       <c r="F12" s="34" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="G12" s="34" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="H12" s="35"/>
       <c r="I12" s="35"/>
@@ -24699,10 +24669,10 @@
     </row>
     <row r="13" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
       <c r="F13" s="34" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="G13" s="31" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="H13" s="31"/>
       <c r="I13" s="31"/>
@@ -24717,10 +24687,10 @@
     </row>
     <row r="14" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
       <c r="F14" s="34" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="G14" s="31" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="H14" s="31"/>
       <c r="I14" s="31"/>
@@ -24735,10 +24705,10 @@
     </row>
     <row r="15" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
       <c r="F15" s="34" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="G15" s="31" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="H15" s="31"/>
       <c r="I15" s="31"/>
@@ -24753,10 +24723,10 @@
     </row>
     <row r="16" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
       <c r="F16" s="34" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="G16" s="31" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="H16" s="31"/>
       <c r="I16" s="31"/>
@@ -24771,291 +24741,291 @@
     </row>
     <row r="17" spans="6:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="F17" s="34" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="G17" s="36" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
     </row>
     <row r="18" spans="6:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="F18" s="34" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="G18" s="36" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
     </row>
     <row r="19" spans="6:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="F19" s="34" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="G19" s="36" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="H19" s="36"/>
     </row>
     <row r="20" spans="6:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="F20" s="34" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="G20" s="36" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
     </row>
     <row r="21" spans="6:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="F21" s="34" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="G21" s="36" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
     </row>
     <row r="22" spans="6:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="F22" s="34" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="G22" s="36" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
     </row>
     <row r="23" spans="6:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="F23" s="34" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="G23" s="36" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
     </row>
     <row r="24" spans="6:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="F24" s="34" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="G24" s="36" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
     </row>
     <row r="25" spans="6:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="F25" s="34" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="G25" s="36" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
     </row>
     <row r="26" spans="6:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="F26" s="34" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="G26" s="36" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
     </row>
     <row r="27" spans="6:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="F27" s="34" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
       <c r="G27" s="36" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
     </row>
     <row r="28" spans="6:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="F28" s="34" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="G28" s="36" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
     </row>
     <row r="29" spans="6:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="F29" s="34" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="G29" s="36" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
     </row>
     <row r="30" spans="6:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="F30" s="34" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="G30" s="36" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
     </row>
     <row r="31" spans="6:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="F31" s="34" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="G31" s="36" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
     </row>
     <row r="32" spans="6:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="F32" s="34" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="G32" s="36" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
     </row>
     <row r="33" spans="6:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="F33" s="34" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="G33" s="36" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
     </row>
     <row r="34" spans="6:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="F34" s="34" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="G34" s="36" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
     </row>
     <row r="35" spans="6:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="F35" s="34" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="G35" s="36" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
     </row>
     <row r="36" spans="6:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="F36" s="34" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="G36" s="36" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
     </row>
     <row r="37" spans="6:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="F37" s="34" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="G37" s="36" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
     </row>
     <row r="38" spans="6:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="F38" s="34" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="G38" s="36" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
     </row>
     <row r="39" spans="6:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="F39" s="34" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="G39" s="36" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
     </row>
     <row r="40" spans="6:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="F40" s="34" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
       <c r="G40" s="36" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
     </row>
     <row r="41" spans="6:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="F41" s="34" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="G41" s="36" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
     </row>
     <row r="42" spans="6:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="F42" s="34" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
       <c r="G42" s="36" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
     </row>
     <row r="43" spans="6:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="F43" s="34" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
       <c r="G43" s="36" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
     </row>
     <row r="44" spans="6:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="F44" s="34" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="G44" s="36" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
     </row>
     <row r="45" spans="6:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="F45" s="34" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
       <c r="G45" s="36" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
     </row>
     <row r="46" spans="6:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="F46" s="34" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
       <c r="G46" s="36" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
     </row>
     <row r="47" spans="6:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="F47" s="34" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
       <c r="G47" s="36" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
     </row>
     <row r="48" spans="6:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="F48" s="34" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
       <c r="G48" s="36" t="s">
-        <v>594</v>
+        <v>590</v>
       </c>
     </row>
     <row r="49" spans="6:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="F49" s="34" t="s">
-        <v>597</v>
+        <v>593</v>
       </c>
       <c r="G49" s="36" t="s">
-        <v>596</v>
+        <v>592</v>
       </c>
     </row>
     <row r="50" spans="6:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="F50" s="34" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
       <c r="G50" s="36" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
     </row>
     <row r="51" spans="6:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="F51" s="34" t="s">
-        <v>600</v>
+        <v>596</v>
       </c>
       <c r="G51" s="36" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
     </row>
     <row r="52" spans="6:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="F52" s="34" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="G52" s="36" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
     </row>
   </sheetData>
@@ -25230,7 +25200,7 @@
         <v>3</v>
       </c>
       <c r="C9" s="79" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="D9" s="80"/>
       <c r="E9" s="80"/>
@@ -25250,7 +25220,7 @@
         <v>4</v>
       </c>
       <c r="C10" s="79" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="D10" s="80"/>
       <c r="E10" s="80"/>
@@ -25271,7 +25241,7 @@
         <v>3</v>
       </c>
       <c r="C11" s="69" t="s">
-        <v>656</v>
+        <v>652</v>
       </c>
       <c r="D11" s="69"/>
       <c r="E11" s="69"/>
@@ -25291,7 +25261,7 @@
         <v>4</v>
       </c>
       <c r="C12" s="82" t="s">
-        <v>663</v>
+        <v>659</v>
       </c>
       <c r="D12" s="83"/>
       <c r="E12" s="83"/>
@@ -25331,7 +25301,7 @@
         <v>5</v>
       </c>
       <c r="C14" s="79" t="s">
-        <v>658</v>
+        <v>654</v>
       </c>
       <c r="D14" s="80"/>
       <c r="E14" s="80"/>
@@ -25351,7 +25321,7 @@
         <v>5</v>
       </c>
       <c r="C15" s="82" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="D15" s="83"/>
       <c r="E15" s="83"/>
@@ -25371,7 +25341,7 @@
         <v>5</v>
       </c>
       <c r="C16" s="82" t="s">
-        <v>665</v>
+        <v>661</v>
       </c>
       <c r="D16" s="83"/>
       <c r="E16" s="83"/>
@@ -25391,7 +25361,7 @@
         <v>5</v>
       </c>
       <c r="C17" s="82" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="D17" s="83"/>
       <c r="E17" s="83"/>
@@ -25411,7 +25381,7 @@
         <v>5</v>
       </c>
       <c r="C18" s="82" t="s">
-        <v>664</v>
+        <v>660</v>
       </c>
       <c r="D18" s="83"/>
       <c r="E18" s="83"/>
@@ -25451,7 +25421,7 @@
         <v>6</v>
       </c>
       <c r="C20" s="82" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
       <c r="D20" s="83"/>
       <c r="E20" s="83"/>
@@ -25511,7 +25481,7 @@
         <v>5.72527472527472</v>
       </c>
       <c r="C23" s="69" t="s">
-        <v>667</v>
+        <v>663</v>
       </c>
       <c r="D23" s="69"/>
       <c r="E23" s="69"/>
@@ -25571,7 +25541,7 @@
         <v>8</v>
       </c>
       <c r="C26" s="79" t="s">
-        <v>668</v>
+        <v>664</v>
       </c>
       <c r="D26" s="80"/>
       <c r="E26" s="80"/>
@@ -25611,7 +25581,7 @@
         <v>9</v>
       </c>
       <c r="C28" s="89" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="D28" s="90"/>
       <c r="E28" s="90"/>
@@ -25631,7 +25601,7 @@
         <v>10</v>
       </c>
       <c r="C29" s="86" t="s">
-        <v>670</v>
+        <v>666</v>
       </c>
       <c r="D29" s="87"/>
       <c r="E29" s="87"/>
@@ -25651,7 +25621,7 @@
         <v>10</v>
       </c>
       <c r="C30" s="86" t="s">
-        <v>671</v>
+        <v>667</v>
       </c>
       <c r="D30" s="87"/>
       <c r="E30" s="87"/>
@@ -25671,7 +25641,7 @@
         <v>11</v>
       </c>
       <c r="C31" s="74" t="s">
-        <v>672</v>
+        <v>668</v>
       </c>
       <c r="D31" s="75"/>
       <c r="E31" s="75"/>
@@ -25691,7 +25661,7 @@
         <v>15</v>
       </c>
       <c r="C32" s="77" t="s">
-        <v>673</v>
+        <v>669</v>
       </c>
       <c r="D32" s="77"/>
       <c r="E32" s="77"/>
@@ -25708,7 +25678,7 @@
     </row>
     <row r="33" spans="2:15" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B33" s="70" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="C33" s="70"/>
       <c r="D33" s="70"/>
@@ -25866,7 +25836,7 @@
     </row>
     <row r="41" spans="2:15" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B41" s="96" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="C41" s="96"/>
       <c r="D41" s="96"/>
@@ -25907,7 +25877,7 @@
         <v>0</v>
       </c>
       <c r="C43" s="98" t="s">
-        <v>674</v>
+        <v>670</v>
       </c>
       <c r="D43" s="99"/>
       <c r="E43" s="99"/>
@@ -26027,7 +25997,7 @@
         <v>1</v>
       </c>
       <c r="C49" s="98" t="s">
-        <v>675</v>
+        <v>671</v>
       </c>
       <c r="D49" s="99"/>
       <c r="E49" s="99"/>
@@ -26067,7 +26037,7 @@
         <v>2</v>
       </c>
       <c r="C51" s="93" t="s">
-        <v>676</v>
+        <v>672</v>
       </c>
       <c r="D51" s="94"/>
       <c r="E51" s="94"/>
@@ -26087,7 +26057,7 @@
         <v>3</v>
       </c>
       <c r="C52" s="93" t="s">
-        <v>677</v>
+        <v>673</v>
       </c>
       <c r="D52" s="94"/>
       <c r="E52" s="94"/>
@@ -26107,7 +26077,7 @@
         <v>5</v>
       </c>
       <c r="C53" s="93" t="s">
-        <v>678</v>
+        <v>674</v>
       </c>
       <c r="D53" s="94"/>
       <c r="E53" s="94"/>
@@ -26124,7 +26094,7 @@
     </row>
     <row r="54" spans="2:15" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B54" s="70" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="C54" s="70"/>
       <c r="D54" s="70"/>
@@ -26502,7 +26472,7 @@
     </row>
     <row r="73" spans="2:15" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B73" s="72" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="C73" s="72"/>
       <c r="D73" s="72"/>
@@ -26754,7 +26724,7 @@
   </sheetPr>
   <dimension ref="B1:AK53"/>
   <sheetViews>
-    <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
       <selection activeCell="C50" sqref="C50:N50"/>
     </sheetView>
   </sheetViews>
@@ -26786,7 +26756,7 @@
         <v>0</v>
       </c>
       <c r="C3" s="50" t="s">
-        <v>679</v>
+        <v>675</v>
       </c>
       <c r="D3" s="50"/>
       <c r="E3" s="50"/>
@@ -26846,7 +26816,7 @@
         <v>1</v>
       </c>
       <c r="C6" s="125" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
       <c r="D6" s="126"/>
       <c r="E6" s="126"/>
@@ -26993,7 +26963,7 @@
       <c r="M13" s="106"/>
       <c r="N13" s="107"/>
       <c r="T13" s="42" t="s">
-        <v>653</v>
+        <v>649</v>
       </c>
     </row>
     <row r="14" spans="2:37" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -27225,7 +27195,7 @@
         <v>0</v>
       </c>
       <c r="C26" s="104" t="s">
-        <v>681</v>
+        <v>677</v>
       </c>
       <c r="D26" s="104"/>
       <c r="E26" s="104"/>
@@ -27599,7 +27569,7 @@
         <v>0</v>
       </c>
       <c r="C46" s="117" t="s">
-        <v>682</v>
+        <v>678</v>
       </c>
       <c r="D46" s="118"/>
       <c r="E46" s="118"/>
@@ -28094,7 +28064,7 @@
         <v>0</v>
       </c>
       <c r="C17" s="128" t="s">
-        <v>683</v>
+        <v>679</v>
       </c>
       <c r="D17" s="128"/>
       <c r="E17" s="128"/>
@@ -28857,7 +28827,7 @@
         <v>7</v>
       </c>
       <c r="T10" s="42" t="s">
-        <v>653</v>
+        <v>649</v>
       </c>
     </row>
     <row r="11" spans="2:37" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -29155,7 +29125,7 @@
         <v>7</v>
       </c>
       <c r="C21" s="145" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
       <c r="D21" s="146"/>
       <c r="E21" s="146"/>
@@ -29184,7 +29154,7 @@
         <v>8</v>
       </c>
       <c r="C22" s="145" t="s">
-        <v>685</v>
+        <v>681</v>
       </c>
       <c r="D22" s="146"/>
       <c r="E22" s="146"/>
@@ -29213,7 +29183,7 @@
         <v>9</v>
       </c>
       <c r="C23" s="150" t="s">
-        <v>686</v>
+        <v>682</v>
       </c>
       <c r="D23" s="151"/>
       <c r="E23" s="151"/>
@@ -29232,7 +29202,7 @@
         <v>10</v>
       </c>
       <c r="C24" s="135" t="s">
-        <v>687</v>
+        <v>683</v>
       </c>
       <c r="D24" s="136"/>
       <c r="E24" s="136"/>
@@ -29270,7 +29240,7 @@
         <v>10</v>
       </c>
       <c r="C26" s="153" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
       <c r="D26" s="154"/>
       <c r="E26" s="154"/>
@@ -29965,7 +29935,7 @@
         <v>0</v>
       </c>
       <c r="C63" s="160" t="s">
-        <v>689</v>
+        <v>685</v>
       </c>
       <c r="D63" s="160"/>
       <c r="E63" s="160"/>
@@ -30193,7 +30163,7 @@
         <v>3</v>
       </c>
       <c r="C75" s="142" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="D75" s="143"/>
       <c r="E75" s="143"/>
@@ -30620,7 +30590,7 @@
       <c r="M10" s="168"/>
       <c r="N10" s="168"/>
       <c r="T10" s="42" t="s">
-        <v>653</v>
+        <v>649</v>
       </c>
     </row>
     <row r="11" spans="2:37" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -31240,7 +31210,7 @@
   </sheetPr>
   <dimension ref="B1:AL63"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="T31" sqref="T31:V37"/>
     </sheetView>
   </sheetViews>
@@ -31257,7 +31227,7 @@
     <row r="2" spans="2:15" s="49" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="1"/>
       <c r="C2" s="175" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="D2" s="175"/>
       <c r="E2" s="175"/>
@@ -31278,7 +31248,7 @@
         <v>0</v>
       </c>
       <c r="D3" s="172" t="s">
-        <v>705</v>
+        <v>701</v>
       </c>
       <c r="E3" s="173"/>
       <c r="F3" s="173"/>
@@ -31298,7 +31268,7 @@
         <v>0</v>
       </c>
       <c r="D4" s="172" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="E4" s="173"/>
       <c r="F4" s="173"/>
@@ -31318,7 +31288,7 @@
         <v>0</v>
       </c>
       <c r="D5" s="172" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="E5" s="173"/>
       <c r="F5" s="173"/>
@@ -31338,7 +31308,7 @@
         <v>1</v>
       </c>
       <c r="D6" s="172" t="s">
-        <v>693</v>
+        <v>689</v>
       </c>
       <c r="E6" s="173"/>
       <c r="F6" s="173"/>
@@ -31358,7 +31328,7 @@
         <v>1</v>
       </c>
       <c r="D7" s="172" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
       <c r="E7" s="173"/>
       <c r="F7" s="173"/>
@@ -31378,7 +31348,7 @@
         <v>1</v>
       </c>
       <c r="D8" s="172" t="s">
-        <v>695</v>
+        <v>691</v>
       </c>
       <c r="E8" s="173"/>
       <c r="F8" s="173"/>
@@ -31398,7 +31368,7 @@
         <v>1</v>
       </c>
       <c r="D9" s="172" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="E9" s="173"/>
       <c r="F9" s="173"/>
@@ -31418,7 +31388,7 @@
         <v>1</v>
       </c>
       <c r="D10" s="172" t="s">
-        <v>697</v>
+        <v>693</v>
       </c>
       <c r="E10" s="173"/>
       <c r="F10" s="173"/>
@@ -31438,7 +31408,7 @@
         <v>1</v>
       </c>
       <c r="D11" s="172" t="s">
-        <v>698</v>
+        <v>694</v>
       </c>
       <c r="E11" s="173"/>
       <c r="F11" s="173"/>
@@ -31458,7 +31428,7 @@
         <v>1</v>
       </c>
       <c r="D12" s="172" t="s">
-        <v>699</v>
+        <v>695</v>
       </c>
       <c r="E12" s="173"/>
       <c r="F12" s="173"/>
@@ -31478,7 +31448,7 @@
         <v>1</v>
       </c>
       <c r="D13" s="172" t="s">
-        <v>709</v>
+        <v>705</v>
       </c>
       <c r="E13" s="173"/>
       <c r="F13" s="173"/>
@@ -31498,7 +31468,7 @@
         <v>1</v>
       </c>
       <c r="D14" s="172" t="s">
-        <v>706</v>
+        <v>702</v>
       </c>
       <c r="E14" s="173"/>
       <c r="F14" s="173"/>
@@ -31518,7 +31488,7 @@
         <v>1</v>
       </c>
       <c r="D15" s="172" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="E15" s="173"/>
       <c r="F15" s="173"/>
@@ -31538,7 +31508,7 @@
         <v>1</v>
       </c>
       <c r="D16" s="172" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="E16" s="173"/>
       <c r="F16" s="173"/>
@@ -31558,7 +31528,7 @@
         <v>1</v>
       </c>
       <c r="D17" s="172" t="s">
-        <v>702</v>
+        <v>698</v>
       </c>
       <c r="E17" s="173"/>
       <c r="F17" s="173"/>
@@ -31578,7 +31548,7 @@
         <v>2</v>
       </c>
       <c r="D18" s="172" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="E18" s="173"/>
       <c r="F18" s="173"/>
@@ -31598,7 +31568,7 @@
         <v>2</v>
       </c>
       <c r="D19" s="172" t="s">
-        <v>708</v>
+        <v>704</v>
       </c>
       <c r="E19" s="173"/>
       <c r="F19" s="173"/>
@@ -31618,7 +31588,7 @@
         <v>2</v>
       </c>
       <c r="D20" s="172" t="s">
-        <v>703</v>
+        <v>699</v>
       </c>
       <c r="E20" s="173"/>
       <c r="F20" s="173"/>
@@ -31638,7 +31608,7 @@
         <v>2</v>
       </c>
       <c r="D21" s="172" t="s">
-        <v>704</v>
+        <v>700</v>
       </c>
       <c r="E21" s="173"/>
       <c r="F21" s="173"/>
@@ -31658,7 +31628,7 @@
         <v>3</v>
       </c>
       <c r="D22" s="172" t="s">
-        <v>710</v>
+        <v>706</v>
       </c>
       <c r="E22" s="173"/>
       <c r="F22" s="173"/>
@@ -31678,7 +31648,7 @@
         <v>4</v>
       </c>
       <c r="D23" s="172" t="s">
-        <v>711</v>
+        <v>707</v>
       </c>
       <c r="E23" s="173"/>
       <c r="F23" s="173"/>
@@ -31698,7 +31668,7 @@
         <v>4</v>
       </c>
       <c r="D24" s="172" t="s">
-        <v>712</v>
+        <v>708</v>
       </c>
       <c r="E24" s="173"/>
       <c r="F24" s="173"/>
@@ -31718,7 +31688,7 @@
         <v>5</v>
       </c>
       <c r="D25" s="172" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
       <c r="E25" s="173"/>
       <c r="F25" s="173"/>
@@ -32374,7 +32344,7 @@
         <v>1</v>
       </c>
       <c r="D54" s="176" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
       <c r="E54" s="176"/>
       <c r="F54" s="176"/>
@@ -32420,7 +32390,7 @@
         <v>2</v>
       </c>
       <c r="D56" s="176" t="s">
-        <v>715</v>
+        <v>711</v>
       </c>
       <c r="E56" s="176"/>
       <c r="F56" s="176"/>
